--- a/Documentazione/Tesi/ReportFinale.xlsx
+++ b/Documentazione/Tesi/ReportFinale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.diliddo\source\repos\QuickApp\QuickAppGitHub\QuickApp\Documentazione\Tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F2054-BEE2-40E0-8564-9ED1795B1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429D361-865D-4AFB-A618-FF9E80C41106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C34FC7B7-BBAC-4B18-AE78-9C99150E09EE}"/>
+    <workbookView xWindow="6300" yWindow="2415" windowWidth="16245" windowHeight="10995" firstSheet="1" activeTab="1" xr2:uid="{C34FC7B7-BBAC-4B18-AE78-9C99150E09EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valutazione del modello in base" sheetId="5" r:id="rId1"/>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Numero Clienti</t>
-  </si>
-  <si>
-    <t>Valutazione Modello</t>
   </si>
   <si>
     <t>Nome Polizza</t>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>Clienti con celle con valore 0 per polizza</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Number of Customers</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Valutazione del modello in base al numero di clienti</a:t>
+              <a:t>Evaluation of the model based on the number of customers</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -332,7 +335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numero Clienti</c:v>
+                  <c:v>Number of Customers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -416,7 +419,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valutazione Modello</c:v>
+                  <c:v>Model Evaluation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3713,22 +3716,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121DC74C-2E44-4F0A-8E49-26DFF8C4C877}">
   <dimension ref="C7:D17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="G13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -3821,7 +3824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF275BB1-FF45-46EA-A642-3C96E4E65F86}">
   <dimension ref="B5:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
@@ -3834,18 +3837,18 @@
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>573876</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <v>64266</v>
@@ -3869,7 +3872,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>2413</v>
@@ -3882,7 +3885,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>766</v>
@@ -3894,7 +3897,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>78</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>22</v>
@@ -3918,7 +3921,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>8</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -3942,7 +3945,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -3959,7 +3962,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
         <f>SUM(C6:C14)</f>
@@ -3981,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E299522-2F93-4557-A183-2E539E7781FB}">
   <dimension ref="B4:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3995,18 +3998,18 @@
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
         <v>541776</v>
@@ -4017,7 +4020,7 @@
     </row>
     <row r="7" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>22</v>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -4039,7 +4042,7 @@
     </row>
     <row r="9" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6">
         <v>2394</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="10" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>8</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="11" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
         <v>63619</v>
@@ -4072,7 +4075,7 @@
     </row>
     <row r="12" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6">
         <v>764</v>
@@ -4083,7 +4086,7 @@
     </row>
     <row r="13" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
@@ -4094,7 +4097,7 @@
     </row>
     <row r="14" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
